--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_299.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_299.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,358 +488,382 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:min', 'C:min'], ['C:maj/G', 'G:7', 'C:min'], ['C:min', 'G:7/D', 'C:min']]</t>
-        </is>
+          <t>isophonics_268</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_3</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0976890756302521</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>[['E', 'A', 'A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(12.7, 27.18), (56.44, 66.34), (0.36, 7.14)]</t>
+          <t>[['D', 'G', 'G']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(34.56, 36.42), (34.34, 35.88), (8.3, 12.96)]</t>
+          <t>[('0:00:06.090000', '0:00:13.659705')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:01:16.889251', '0:01:20.407074')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1252173913043478</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B']]</t>
-        </is>
+          <t>isophonics_133</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.46875</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C/7']]</t>
+          <t>[['D/3', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(19.36, 21.74)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(12.851927, 16.810929)]</t>
+          <t>[('0:00:57.251357', '0:01:13.909779')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
-        </is>
-      </c>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(32.2, 33.7), (32.06, 33.28), (8.2, 12.66)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(12.26, 25.04), (49.4, 56.76), (1.44, 6.66)]</t>
+          <t>[('0:00:16.840000', '0:00:21.540000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>[('0:01:03.200000', '0:01:13.120000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>isophonics_147</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_81</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4975490196078431</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['B', 'A', 'B', 'E', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(13.66, 17.9), (31.6, 33.8)]</t>
+          <t>[['F#', 'E', 'F#', 'B', 'B', 'E/5', 'B']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(9.64, 22.68), (66.22, 72.3)]</t>
+          <t>[('0:00:12.364000', '0:00:32.669000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:43.984965', '0:01:04.604285')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7']]</t>
-        </is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(18.66, 21.28)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(5.7, 12.08)]</t>
+          <t>[('0:00:05.400000', '0:00:13.720000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:13.660000', '0:00:17.900000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.09779367918902802</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:7', 'D#:min'], ['D#:min', 'A#:maj', 'D#:min']]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(84.0, 90.84), (13.74, 22.56)]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(8.26, 12.96), (0.36, 5.06)]</t>
+          <t>[('0:01:42.160000', '0:01:53.900000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>[('0:00:37.540000', '0:00:45.380000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1136044880785414</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1230769230769231</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(0.38, 3.7)]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[('0:00:41.320000', '0:00:48.940000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:40.380000', '0:00:42.280000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1230769230769231</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>[(9.1, 13.86)]</t>
-        </is>
-      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[('0:00:42.440000', '0:00:44.360000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:40.120000', '0:00:47.880000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
@@ -843,268 +872,274 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(101.44, 112.4)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(96.66, 106.3)]</t>
+          <t>[('0:00:19.780000', '0:00:23.120000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:58.320000', '0:00:59.680000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_178</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_150</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(14.9, 28.9)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(0.3, 4.8)]</t>
+          <t>[('0:00:01.140000', '0:00:16.460000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.780000', '0:00:16.040000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7']]</t>
-        </is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
+          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(18.66, 21.28)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(9.24, 17.72)]</t>
+          <t>[('0:01:58.400000', '0:02:02.040000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:02:34.020000', '0:02:40.380000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_57</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_212</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(3.1, 7.72)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(8.2, 23.6)]</t>
+          <t>[('0:00:13.820000', '0:00:17.980000'), ('0:00:23.160000', '0:00:26.040000'), ('0:00:18.660000', '0:00:20.140000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:13.980000', '0:00:18.160000'), ('0:00:23.460000', '0:00:26.480000'), ('0:00:18.840000', '0:00:20.320000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(2.68, 6.46)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(42.14, 44.36)]</t>
+          <t>[('0:00:13.080000', '0:01:14.300000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:10.100000', '0:01:03.440000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1229096989966555</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(0.440395, 7.142059)]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(42.9, 45.16)]</t>
+          <t>[('0:00:01.640000', '0:00:23.800000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
+          <t>[('0:00:00.220000', '0:00:21.940000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
@@ -1113,92 +1148,44 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_42</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(3.9, 7.72)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(13.42, 17.82)]</t>
+          <t>[('0:00:20.540000', '0:00:23.160000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min'], ['A:min', 'D:min/A', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(83.1, 90.02), (28.14, 36.1)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(2.56, 4.8), (0.3, 3.34)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:58.780000', '0:01:01.540000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
